--- a/result/real-space.xlsx
+++ b/result/real-space.xlsx
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>246KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1822KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,10 @@
   </si>
   <si>
     <t>1147KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +429,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -459,19 +459,19 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -479,25 +479,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -505,25 +505,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/result/real-space.xlsx
+++ b/result/real-space.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>1000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,7 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>188KB</t>
+    <t>193KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/result/real-space.xlsx
+++ b/result/real-space.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1198KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3000W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,18 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1822KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2504KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2984KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>465KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +69,22 @@
   </si>
   <si>
     <t>191KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1198KB（1067KB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2984KB（2629KB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2504KB（2214KB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1822KB（1609KB）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,23 +437,26 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -461,25 +464,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -487,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -513,25 +516,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
